--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1496.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1496.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.254173761402939</v>
+        <v>1.628069043159485</v>
       </c>
       <c r="B1">
-        <v>1.869895289383106</v>
+        <v>4.069114208221436</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.766246318817139</v>
       </c>
       <c r="D1">
-        <v>2.175315016696854</v>
+        <v>0.9726204872131348</v>
       </c>
       <c r="E1">
-        <v>0.9460048520331525</v>
+        <v>0.8799508213996887</v>
       </c>
     </row>
   </sheetData>
